--- a/112-1/PROGRAMMING APPLICATIONS FOR ENGINEERS/Quiz 1/quiz1_grade_Purdue.xlsx
+++ b/112-1/PROGRAMMING APPLICATIONS FOR ENGINEERS/Quiz 1/quiz1_grade_Purdue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-1\PROGRAMMING APPLICATIONS FOR ENGINEERS\Quiz 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7E8C1E-B33B-443D-B75D-8FBDCF48C3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23346FDF-87DC-4454-A940-973D9002FA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,9 +330,24 @@
     <t>Starbucks</t>
   </si>
   <si>
+    <t>Question 1: -7
+Wrong setting in for-loop: left blank *1(-3)
+Meanless for-loop, which should become a printChar() *2(-4)
+Question 2: great</t>
+  </si>
+  <si>
+    <t>Question 1: -6
+Wrong setting in for-loop: left blank *2(-6)
+Lack of blank lines before/after the graph * 2(-0)
+Question 2: great</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Question 1: Got a extra space when right-tilt(-4)
-</t>
+      <t>Question 1: -14
+Wrong setting in for-loop *3(-8)
+Wrong calculation of parameter *2(-6)
+Extra blank lines before/after the graph *1(-0)
+Question 2: -33</t>
     </r>
     <r>
       <rPr>
@@ -341,7 +356,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Wrongly using printChar</t>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -350,19 +366,179 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">
-Question 2: Extra commas(-0)</t>
+      <t>Lack of decending order(-15)
+Assign values before initialized(-4) 
+Incorrectly using comparison operators(-4)
+Incorrect if-else statement and end condition(-10)</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Question 1: great
 Question 2: great</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Question 1: -39
+Wrong setting in for-loop *12(-10)
+Wrong using of "=", which should be "==" *2(-6)
+Lack of using printChar()(-10)
+Lack of limiting inputs *3(-8)
+Meanless for-loop *4(-5)
+Question 2: -35
+Lack of decending order(-15)
+Missing "%d" in printf()(-10)
+Incorrect if-else statement and end condition(-10)</t>
+  </si>
+  <si>
+    <t>Question 1: -14
+Wrong setting in for-loop *1(-4)
+Lack of using printChar()(-10)
+Question 2: great</t>
+  </si>
+  <si>
+    <t>Question 1: -48
+Wrong setting in for-loop *8(-10)
+Wrong ending of the main function *2(-6)
+No need of '\n' in question printf() *3(-4)
+Lack of calculating the characters(-10)
+Lack of using printChar()(-10)
+Lack of blank lines before/after the graph *2(-0)
+Lack of '\n' after finishing the graph *1(-2)
+Lack of limiting inputs *2(-6)
+Question 2: -50
+Without file(-50)</t>
+  </si>
+  <si>
+    <t>Question 1: -22
+Lack of calculating the characters(-10)
+Lack of using printChar()(-10)
+Lack of blank lines before/after the graph *2(-0)
+Lack of '\n' after finishing the graph *1(-2)
+Question 2: -29
+Lack of decending order(-15)
+Incorrectly using comparison operators(-10)
+Incorrect end condition(-4)</t>
+  </si>
+  <si>
+    <t>Question 1: -14
+Wrong setting in for-loop *1(-4)
+Lack of blank lines before/after the graph *2(-0)
+Lack of using printChar()(-10)
+Question 2: great</t>
+  </si>
+  <si>
+    <t>Question 1: -30
+Wrong setting in for-loop *5(-10)
+Lack of blank lines before/after the graph *2(-0)
+Lack of using printChar()(-10)
+Lack of calculating the characters(-10)
+Question 2: -18
+Output didn't follow format(-4)
+Didn't print 0s when inputs are 0s(-4)
+Incorrect if-else statement and end condition(-10)</t>
+  </si>
+  <si>
+    <t>Question 1: -0
+Lack of blank lines before/after the graph *2(-0)
+Question 2: -4
+Incorrect end condition(-4)</t>
+  </si>
+  <si>
+    <t>Question 1: -0
+Lack of blank lines before/after the graph *2(-0)
+Question 2: great</t>
+  </si>
+  <si>
+    <t>Question 1: -50
+STRUCTURAL MISTAKE(-25)
+Wrong type *3(-8)
+Wrong using of semicolon *2(-6)
+Lack of calculating the characters(-10)
+Lack of using printChar()(-10)
+Lack of blank lines before/after the graph *2(-0)
+Lack of '\n' after finishing the graph *1(-2)
+Wrong using of "=", which should be "==" *1(-4)
+Question 2: -10
+Incorrect if-else statement and end condition(-10)</t>
+  </si>
+  <si>
+    <t>Question 1: -4
+Wrong setting in for-loop *1(-4)
+Question 2: -4
+Incorrect end condition(-4)</t>
+  </si>
+  <si>
+    <t>Question 1: -26
+Wrong setting in for-loop: left blank * 5(-10)
+Wrong using of "=", which should be "==" *2(-6)
+Lack of calculating the characters *3(-10)
+Question 2: -4
+Incorrect end condition(-4)</t>
+  </si>
+  <si>
+    <t>Question 1: -4
+Wrong calculation of parameter *1(-4)
+Question 2: great</t>
+  </si>
+  <si>
+    <t>Question 1: -20
+Lack of blank lines before/after the graph *2(-0)
+Lack of '\n' after finishing the graph *1(-2)
+Lack of '\n' after statement *3(-4)
+Lack of using printChar()(-10)
+Wrong ending of the main function *1(-4)
+Question 2: -16
+Incorrectly using comparison operators(-10)
+Incorrect if-else statement and end condition(-6)</t>
+  </si>
+  <si>
+    <t>Question 1: -26
+Wrong setting in for-loop: top *2(-6)
+Wrong setting in left shift blank *2(-2)
+Extra blank lines before/after the graph *2(-0)
+Lack of using printChar()(-10)
+Lack of limiting inputs*3(-8)
+Question 2: great</t>
+  </si>
+  <si>
+    <t>Question 1: -24
+Wrong setting in for-loop *2(-6)
+Wrong calculation of parameter *3(-8)
+Lack of using printChar()(-10)
+Lack of blank lines before/after the graph * 2(-0)
+Question 2: great</t>
+  </si>
+  <si>
+    <t>Question 1: -50
+STRUCTURAL MISTAKE(-25)
+Wrong setting in for-loop *1(-4)
+Lack of calculating the characters(-10)
+Lack of using printChar()(-10)
+Lack of blank lines before/after the graph *2(-0)
+Lack of leading blank *3(-10)
+Lack of printing out the side char *2(-6)
+Meanless for-loop *2(-3)
+Question 2: -39
+Missing "%d" in printf()(-10)
+Incorrect using '&amp;' in printf()(-10)
+Incomplete ascending/decending order(-15)
+Incorrect end condition(-4)</t>
+  </si>
+  <si>
+    <t>Question 1: -20
+Lack of calculating the characters(-10)
+Lack of blank lines before/after the graph * 1(-0)
+Lack of using printChar()(-10)
+Question 2: -4
+Incorrect end condition(-4)</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Question 1: </t>
+      <t>Question 1: -22
+Wrong setting in if-else judgement *1(-4)
+Wrong setting in for-loop *1(-4)
+Lack of using printChar()(-10)
+Lack of limiting inputs *1(-4)
+Question 2: -42</t>
     </r>
     <r>
       <rPr>
@@ -371,7 +547,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Didn't fully use function "printChar()"(-0)</t>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -380,340 +557,27 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">
-Lack a space when left-tilt(-4)
-Question 2: Lack of commas(-0)</t>
+      <t>Didn't print 0s when inputs are 0s(-4)
+Incorrect output in ascending/decending order(-10)
+Wrong setting in if-else judgement(-4)
+Wrong using of "==", which should be "="(-4)
+Wrong calculation of parameter(-10)
+Wrong using of variables(-10)</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Question 1: Didn't use function "printChar()"(-10)
-Incorrect output when right-tilt(-8)
-Missing lines when left-tilt(-8)
-Lack of number of characters(-8)
-Question 2: Didn't output x, y, and z(-8)
-Didn't output values in ascending order(-8)
-Lack of decending order(-8)
-Missing "%d" in printf()(-4)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Question 1: Didn't use function "printChar()"(-10)
-Got extra spaces when printing parallelogram(-4)
-Missing lines when printing parallelogram(-8)
-Lack of number of characters(-8)
-Question 2: Without file(-50)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Question 1: Spaces didn't vary with the height of parallelogram when left-tilt(-8)
-Incorrect number in interior and parallelogram(-12)
-Question 2: Incorrect output in ascending order(-8)
-Lack of decending order(-8)
-Assign values before initialize(-4) 
-Incorrectly using comparison operators(-4)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Question 1: Didn't use function "printChar()"(-10)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lack spaces when left-tilt(-4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Question 2: great</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Question 1: Didn't use function "printChar()"(-10)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Incorrect output when printing parallelogram(-50)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Lack of number of characters(-8)
-Question 2: Output didn't follow format(-4)
-Didn't print 0s when inputs are 0s(-8)</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Question 1: Didn't use function "printChar()"(-10)
-Lack of number of characters(-8)
-Question 2: Lack of decending order(-8)
-Incorrect output in ascending order(-8)
-Didn't output in multiple tasks(-50)
-Didn't end execution of program as expectation(-8)
-Incorrectly using comparison operators(-4)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Question 1: Didn't use function "printChar()"(-10)
-Got 2 extra spaces when left-tilt(-4)
-Missing 2 lines when left-tilt(-8)
-Got 1 extra space when right-tilt(-4)
-Missing 1 line when right-tilt(-8)
-Lack of number of characters(-8)
-Incorrect condition when input side
-Question 2: Didn't print 0s when inputs are 0s(-8)
-Incorrect output in ascending order(-8)
-Incorrect output in decending order(-8)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Question 1: great
-Question 2: great
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>End condition</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Question 1: great
-Question 2: great
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>if-else methods</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Question 1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Didn't fully use function "printChar()"(-0)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Lack a space when left-tilt(-4)
-Question 2: great</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Question 1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Incorrect spaces when printing parallelogram(-30)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lack of number of characters(-8)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Question 2: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Incorrect end condition(-8)</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Question 1: Lack 2 spaces when left-tilt(-4)
-Question 2: great</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Question 1: Didn't use function "printChar()"(-10)
-Lack of number of characters when right-tilt(-8)
-Question 2: Incorrect output in ascending order(-8)
-Incorrect output in decending order(-8)
-Incorrect end condition(-8)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Question 1: Didn't use function "printChar()"(-10)
-Lack 5 spaces when right-tilt(-4)
-Lack 4 spaces when left-tilt(-4)
-Got 1 extra character in top and interior(-12)
-Question 2: great</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Question 1: Didn't use function "printChar()"(-10)
-Got 1 extra space when left-tilt(-4)
-Question 2: great</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Question 1: Didn't use function "printChar()"(-10)
-Lack 2 spaces when left-tilt(-4)
-Got 1 extra space when right-tilt(-4)
-Missing 2 lines when printing parallelogram(-8)
-Incorrect number of characters(-16)
-Question 2: great</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Question 1: Didn't use function "printChar()"(-10)
-Lack of spaces when printing parallelogram(-20)
-Didn't use '#' at the side of parallelogram(-8)
-Lack of number of characters(-8)
-Question 2: Didn't output in multiple tasks(-50)
-Incorrect end condition(-8)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Question 1: Didn't use function "printChar()"(-10)
-Lack of number of characters(-8)
-Question 2: great</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Question 1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Can't be compiled(-20)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Incorrect output when printing parallelogram(-50)
-Lack of number of characters(-8)
-Question 2: great</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="微軟正黑體"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="PMingLiu"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -742,6 +606,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -751,7 +634,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -760,39 +643,71 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -809,56 +724,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1139,35 +1030,35 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F12" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="4.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="4" customWidth="1"/>
     <col min="6" max="6" width="73.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="31.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -1176,12 +1067,12 @@
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="46.8">
-      <c r="A2" s="9">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="63" thickBot="1">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1193,525 +1084,525 @@
       <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="13">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="46.8">
-      <c r="A3" s="9">
+      <c r="G2" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="63" thickBot="1">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="141" thickBot="1">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="13">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="93.6">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="13">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="32.4">
-      <c r="A5" s="9">
+      <c r="G4" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="31.8" thickBot="1">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="F5" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="124.8">
-      <c r="A6" s="9">
+      <c r="G5" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="156.6" thickBot="1">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="13">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="46.8">
-      <c r="A7" s="9">
+      <c r="F6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="63" thickBot="1">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="F7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="12">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="78">
-      <c r="A8" s="9">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="172.2" thickBot="1">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="109.2">
-      <c r="A9" s="9">
+      <c r="F8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="141" thickBot="1">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="13">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="46.8">
-      <c r="A10" s="9">
+      <c r="F9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="78.599999999999994" thickBot="1">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="F10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="12">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="78">
-      <c r="A11" s="9">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="141" thickBot="1">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="13">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="156">
-      <c r="A12" s="9">
+      <c r="F11" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="187.8" thickBot="1">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="13">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="46.8">
-      <c r="A13" s="9">
+      <c r="F12" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="63" thickBot="1">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="46.8">
-      <c r="A14" s="9">
+      <c r="G13" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="47.4" thickBot="1">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="62.4">
-      <c r="A15" s="9">
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="172.2" thickBot="1">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="46.8">
-      <c r="A16" s="9">
+      <c r="F15" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="63" thickBot="1">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="13">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="46.8">
-      <c r="A17" s="9">
+      <c r="F16" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="94.2" thickBot="1">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="13">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="32.4">
-      <c r="A18" s="9">
+      <c r="F17" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="47.4" thickBot="1">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="F18" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="12">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="78">
-      <c r="A19" s="9">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="141" thickBot="1">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="13">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="78">
-      <c r="A20" s="9">
+      <c r="F19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="109.8" thickBot="1">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="13">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="32.4">
-      <c r="A21" s="9">
+      <c r="F20" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="31.8" thickBot="1">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="13">
+      <c r="E21" s="14"/>
+      <c r="F21" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="93.6">
-      <c r="A22" s="9">
+      <c r="G21" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="94.2" thickBot="1">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="13">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="93.6">
-      <c r="A23" s="9">
+      <c r="G22" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="219" thickBot="1">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="46.8">
-      <c r="A24" s="9">
+      <c r="G23" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="94.2" thickBot="1">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G24" s="13">
-        <v>82</v>
+      <c r="G24" s="12">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E24">
     <sortCondition ref="B2:B24"/>
   </sortState>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="1.25972222222222" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/112-1/PROGRAMMING APPLICATIONS FOR ENGINEERS/Quiz 1/quiz1_grade_Purdue.xlsx
+++ b/112-1/PROGRAMMING APPLICATIONS FOR ENGINEERS/Quiz 1/quiz1_grade_Purdue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-1\PROGRAMMING APPLICATIONS FOR ENGINEERS\Quiz 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23346FDF-87DC-4454-A940-973D9002FA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ADE197-7055-44DA-904F-6D3A432F3478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quiz1" sheetId="8" r:id="rId1"/>
@@ -590,7 +590,8 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="新細明體"/>
-      <charset val="134"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1036,19 +1037,19 @@
       <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.149999999999999"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" style="4" customWidth="1"/>
     <col min="6" max="6" width="73.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" thickBot="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="63" thickBot="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="61.9" thickBot="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1094,7 +1095,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="63" thickBot="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="61.9" thickBot="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="141" thickBot="1">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="138.75" thickBot="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="31.8" thickBot="1">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="31.15" thickBot="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="156.6" thickBot="1">
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="154.15" thickBot="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="63" thickBot="1">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="61.9" thickBot="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="172.2" thickBot="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="169.5" thickBot="1">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="141" thickBot="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="138.75" thickBot="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="78.599999999999994" thickBot="1">
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="77.25" thickBot="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="141" thickBot="1">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="138.75" thickBot="1">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="187.8" thickBot="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="184.9" thickBot="1">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="63" thickBot="1">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="61.9" thickBot="1">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="47.4" thickBot="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="46.5" thickBot="1">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="172.2" thickBot="1">
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="169.5" thickBot="1">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1393,7 +1394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="63" thickBot="1">
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="61.9" thickBot="1">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="94.2" thickBot="1">
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="92.65" thickBot="1">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1439,7 +1440,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="47.4" thickBot="1">
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="46.5" thickBot="1">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="141" thickBot="1">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="138.75" thickBot="1">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="109.8" thickBot="1">
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="108" thickBot="1">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="31.8" thickBot="1">
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="31.15" thickBot="1">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="94.2" thickBot="1">
+    <row r="22" spans="1:7" ht="92.65" thickBot="1">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -1552,7 +1553,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="219" thickBot="1">
+    <row r="23" spans="1:7" ht="215.65" thickBot="1">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1575,7 +1576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="94.2" thickBot="1">
+    <row r="24" spans="1:7" ht="92.65" thickBot="1">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1616,23 +1617,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3317c420-d316-4435-8241-33b98cfe393f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文件" ma:contentTypeID="0x010100B542E048DCEC914CB381455F65170921" ma:contentTypeVersion="17" ma:contentTypeDescription="建立新的文件。" ma:contentTypeScope="" ma:versionID="a9fe78b0e763ba360e927b7ffbaa4d7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3317c420-d316-4435-8241-33b98cfe393f" xmlns:ns4="63d3d360-74a6-4491-a2a1-d2af0de2cd9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4f3198fc71856a272a1be625b81b45a" ns3:_="" ns4:_="">
     <xsd:import namespace="3317c420-d316-4435-8241-33b98cfe393f"/>
@@ -1879,8 +1863,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3317c420-d316-4435-8241-33b98cfe393f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84D1AD7C-47F2-4F28-91EE-0FBA88418B59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C229C7-8A04-4E15-A9F4-3B3F02F65EE4}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1892,7 +1893,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8C229C7-8A04-4E15-A9F4-3B3F02F65EE4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84D1AD7C-47F2-4F28-91EE-0FBA88418B59}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>